--- a/sql/instruments.xlsx
+++ b/sql/instruments.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="15440"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
+    <sheet name="instrument lookup" sheetId="3" r:id="rId3"/>
+    <sheet name="poets lookup" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
   <si>
     <t>Melanippides</t>
   </si>
@@ -128,13 +130,370 @@
   </si>
   <si>
     <t>Epameinondas</t>
+  </si>
+  <si>
+    <t>Alcaeus</t>
+  </si>
+  <si>
+    <t>Alcman</t>
+  </si>
+  <si>
+    <t>Anacreon</t>
+  </si>
+  <si>
+    <t>Ananius</t>
+  </si>
+  <si>
+    <t>Apollodorus</t>
+  </si>
+  <si>
+    <t>Archilochus</t>
+  </si>
+  <si>
+    <t>Arion</t>
+  </si>
+  <si>
+    <t>Asius</t>
+  </si>
+  <si>
+    <t>Bacchylides</t>
+  </si>
+  <si>
+    <t>Callinus</t>
+  </si>
+  <si>
+    <t>Cedeides</t>
+  </si>
+  <si>
+    <t>Charixena</t>
+  </si>
+  <si>
+    <t>Corinna</t>
+  </si>
+  <si>
+    <t>Critias</t>
+  </si>
+  <si>
+    <t>Cydias</t>
+  </si>
+  <si>
+    <t>Demodocus</t>
+  </si>
+  <si>
+    <t>Diagoras</t>
+  </si>
+  <si>
+    <t>Dionysius Chalkus</t>
+  </si>
+  <si>
+    <t>Echembrotus</t>
+  </si>
+  <si>
+    <t>Eunicus</t>
+  </si>
+  <si>
+    <t>Euripides</t>
+  </si>
+  <si>
+    <t>Hermippus</t>
+  </si>
+  <si>
+    <t>Hipponax</t>
+  </si>
+  <si>
+    <t>Ibycus</t>
+  </si>
+  <si>
+    <t>Ion</t>
+  </si>
+  <si>
+    <t>Lamprocles</t>
+  </si>
+  <si>
+    <t>Lamprus</t>
+  </si>
+  <si>
+    <t>Lasus</t>
+  </si>
+  <si>
+    <t>Mimnermus</t>
+  </si>
+  <si>
+    <t>Myrtis</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Panarces</t>
+  </si>
+  <si>
+    <t>Philiadas</t>
+  </si>
+  <si>
+    <t>Phocylides</t>
+  </si>
+  <si>
+    <t>Polymnestus</t>
+  </si>
+  <si>
+    <t>Pratinas</t>
+  </si>
+  <si>
+    <t>Praxilla</t>
+  </si>
+  <si>
+    <t>Sacadas</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>Scythinus</t>
+  </si>
+  <si>
+    <t>Semonides</t>
+  </si>
+  <si>
+    <t>Simonides</t>
+  </si>
+  <si>
+    <t>Solon</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>Stesichorus</t>
+  </si>
+  <si>
+    <t>Susarion</t>
+  </si>
+  <si>
+    <t>Telesilla</t>
+  </si>
+  <si>
+    <t>Terpander</t>
+  </si>
+  <si>
+    <t>Theognis</t>
+  </si>
+  <si>
+    <t>Timocreon</t>
+  </si>
+  <si>
+    <t>Tyrtaeus</t>
+  </si>
+  <si>
+    <t>Tynnichus</t>
+  </si>
+  <si>
+    <t>Xanthus</t>
+  </si>
+  <si>
+    <t>Barbitos</t>
+  </si>
+  <si>
+    <t>-es</t>
+  </si>
+  <si>
+    <t>Antigenes</t>
+  </si>
+  <si>
+    <t>Archelaos</t>
+  </si>
+  <si>
+    <t>Ariphron</t>
+  </si>
+  <si>
+    <t>Aristarkhos</t>
+  </si>
+  <si>
+    <t>Aristokleides</t>
+  </si>
+  <si>
+    <t>Arkhestratos</t>
+  </si>
+  <si>
+    <t>Arrabaios</t>
+  </si>
+  <si>
+    <t>Bakkhiadas</t>
+  </si>
+  <si>
+    <t>Castorion</t>
+  </si>
+  <si>
+    <t>Chares</t>
+  </si>
+  <si>
+    <t>Cinesias</t>
+  </si>
+  <si>
+    <t>Dikaiogenes</t>
+  </si>
+  <si>
+    <t>Dionysius of Chios</t>
+  </si>
+  <si>
+    <t>Dionysius of Thebes</t>
+  </si>
+  <si>
+    <t>Diphilos</t>
+  </si>
+  <si>
+    <t>Euenos</t>
+  </si>
+  <si>
+    <t>Eumelos #2</t>
+  </si>
+  <si>
+    <t>Eumelos #1</t>
+  </si>
+  <si>
+    <t>Euneidai</t>
+  </si>
+  <si>
+    <t>Euripides the Younger</t>
+  </si>
+  <si>
+    <t>Exekestos</t>
+  </si>
+  <si>
+    <t>Gnesippos</t>
+  </si>
+  <si>
+    <t>Hegemon</t>
+  </si>
+  <si>
+    <t>Hieronymos</t>
+  </si>
+  <si>
+    <t>Hippias</t>
+  </si>
+  <si>
+    <t>Ion of Chios</t>
+  </si>
+  <si>
+    <t>Ion of Samos</t>
+  </si>
+  <si>
+    <t>Iophon</t>
+  </si>
+  <si>
+    <t>Karkinos</t>
+  </si>
+  <si>
+    <t>Kedeides</t>
+  </si>
+  <si>
+    <t>Kinesias</t>
+  </si>
+  <si>
+    <t>Kleitagora</t>
+  </si>
+  <si>
+    <t>Kleomenes</t>
+  </si>
+  <si>
+    <t>Krateuas</t>
+  </si>
+  <si>
+    <t>Lamynthius</t>
+  </si>
+  <si>
+    <t>Leotrophides</t>
+  </si>
+  <si>
+    <t>Licymnius</t>
+  </si>
+  <si>
+    <t>Magnes</t>
+  </si>
+  <si>
+    <t>Melanthius</t>
+  </si>
+  <si>
+    <t>Meletos</t>
+  </si>
+  <si>
+    <t>Niko-</t>
+  </si>
+  <si>
+    <t>Nikostratos</t>
+  </si>
+  <si>
+    <t>Oenopas</t>
+  </si>
+  <si>
+    <t>Pankrates</t>
+  </si>
+  <si>
+    <t>Pantakles</t>
+  </si>
+  <si>
+    <t>Pheidippides</t>
+  </si>
+  <si>
+    <t>Philoxenus of Cythera</t>
+  </si>
+  <si>
+    <t>Philoxenus of Leucas</t>
+  </si>
+  <si>
+    <t>Phrynichos</t>
+  </si>
+  <si>
+    <t>Pindar (son of Skopelinos, cousin/nephew? of Pindar)</t>
+  </si>
+  <si>
+    <t>Polyidus</t>
+  </si>
+  <si>
+    <t>Skythinos</t>
+  </si>
+  <si>
+    <t>Sophokles (son of Ariston)</t>
+  </si>
+  <si>
+    <t>Stesandros</t>
+  </si>
+  <si>
+    <t>Thaletas</t>
+  </si>
+  <si>
+    <t>Theano</t>
+  </si>
+  <si>
+    <t>Timonides</t>
+  </si>
+  <si>
+    <t>Xenokrates</t>
+  </si>
+  <si>
+    <t>Xenophanes</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Sambyke</t>
+  </si>
+  <si>
+    <t>or alternatively Ibycinon, i.e. triangular Kithara</t>
+  </si>
+  <si>
+    <t>Sacadion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +524,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,22 +558,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="24">
+    <cellStyle name="Excel Built-in Normal" xfId="7"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -492,660 +917,1074 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1"/>
+      <c r="E1" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>45</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>3</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>4</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>55</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>3</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>61</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>64</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4">
+        <v>92</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
       <c r="E32"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="5:6">
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
+        <v>93</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
       <c r="E33"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4">
+        <v>94</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
       <c r="E34"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4">
+        <v>97</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
       <c r="E35"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
       <c r="E36"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="5:6">
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
       <c r="E37"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="5:6">
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4">
+        <v>103</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
       <c r="E38"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="5:6">
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4">
+        <v>105</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
       <c r="E39"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="5:6">
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4">
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
       <c r="E40"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="5:6">
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
       <c r="E41"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="5:6">
-      <c r="E42"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4">
+        <v>114</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="5:6">
-      <c r="E43"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="5:6">
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="4">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
       <c r="E44"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="5:6">
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="4">
+        <v>118</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
       <c r="E45"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="5:6">
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4">
+        <v>119</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
       <c r="E46"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="5:6">
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="4">
+        <v>120</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
       <c r="E47"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="5:6">
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="4">
+        <v>121</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
       <c r="E48"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="5:6">
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="4">
+        <v>122</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
       <c r="E49"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="5:6">
+    <row r="50" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
       <c r="E50"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="5:6">
+    <row r="51" spans="1:6">
+      <c r="A51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="4">
+        <v>128</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
       <c r="E51"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="5:6">
+    <row r="52" spans="1:6">
+      <c r="A52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="4">
+        <v>128</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
       <c r="E52"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="5:6">
+    <row r="53" spans="1:6">
+      <c r="A53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="4">
+        <v>129</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
       <c r="E53"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="5:6">
+    <row r="54" spans="1:6">
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="4">
+        <v>131</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
       <c r="E54"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="5:6">
-      <c r="E55"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="4">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="5:6">
-      <c r="E56"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="5:6">
-      <c r="E64"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71"/>
-      <c r="F71" s="2"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="4">
+        <v>132</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4">
+        <v>135</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4">
+        <v>135</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="4">
+        <v>137</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="4">
+        <v>138</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="4">
+        <v>138</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="4">
+        <v>54</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="4">
+        <v>141</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4">
+        <v>141</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4">
+        <v>141</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="4">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="4">
+        <v>143</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="4">
+        <v>145</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D27">
@@ -1184,4 +2023,1199 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection sqref="A1:B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>